--- a/egg-infrared-fsm.xlsx
+++ b/egg-infrared-fsm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="19180" windowHeight="8860"/>
+    <workbookView activeTab="0" windowWidth="21980" windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
   <si>
-    <t>clear\READY</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -88,23 +91,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="10.570793269230771" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" style="0" width="18.92743389423077" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" style="0" width="14.28485576923077" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" style="0" width="16.141887019230772" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" style="0" width="10.570793269230771" bestFit="1" customWidth="1"/>
-    <col min="6" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="1" style="0" width="11.713581730769231" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" style="0" width="13.713461538461539" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" style="0" width="7.713822115384616" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" style="0" width="10.713641826923078" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" style="0" width="13.713461538461539" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="inlineStr">
         <is>
           <t>state\event</t>
@@ -120,18 +123,19 @@
           <t>TIMEOUT</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>detected</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" t="inlineStr">
         <is>
           <t>READY</t>
@@ -139,72 +143,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>start delayer\DELAY1</t>
+          <t>init\CHECKING</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DELAY1</t>
+          <t>CHECKING</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>check\CHECKING1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CHECKING1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>\DELAY2</t>
-        </is>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DELAY2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>check\CHECKING2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CHECKING2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>trigger\AFTERCASE</t>
-        </is>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AFTERCASE</t>
-        </is>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
+          <t>\READY</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>set 0\</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>set 1\</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>trigger\READY</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -232,8 +199,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -260,8 +226,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
